--- a/auto/config/twzw/company.xlsx
+++ b/auto/config/twzw/company.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ads-page\auto\config\twzw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>链接</t>
   </si>
@@ -120,81 +125,12 @@
   <si>
     <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_33T.html</t>
   </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_33U.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_33V.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_33W.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_33X.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_33Y.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_33Z.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_34A.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_34B.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_34C.html</t>
-  </si>
-  <si>
-    <t>深圳市龙宇天下科技有限公司@文网文号：粤网文【2015】2146-469号</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_34D.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_34E.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_34F.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_34G.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_34H.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_34I.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_34J.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_34K.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_34L.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_34M.html</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_34N.html</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,158 +151,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,188 +170,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -568,251 +179,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -822,58 +191,19 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1134,24 +464,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:XFD51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="69.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="62.25" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:2">
+    <row r="1" spans="1:16384" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:16384">
+    <row r="2" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -17549,7 +16877,7 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -17557,7 +16885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:2">
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -17565,7 +16893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -17573,7 +16901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -17581,7 +16909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -17589,7 +16917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -17597,7 +16925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -17605,7 +16933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -17613,7 +16941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -17621,7 +16949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -17629,7 +16957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -17637,7 +16965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -17645,7 +16973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -17653,7 +16981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -17661,7 +16989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -17669,7 +16997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -17677,7 +17005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -17685,7 +17013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -17693,7 +17021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -17701,7 +17029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -17709,7 +17037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -17717,7 +17045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -17725,7 +17053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -17733,7 +17061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -17741,7 +17069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -17749,7 +17077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -17757,7 +17085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
@@ -17765,7 +17093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -17773,7 +17101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -17781,172 +17109,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_32S.html"/>
+    <hyperlink ref="A4" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>